--- a/Backend/assets/excelEvaluation/4jPA3R48dSvYrBzBLz64.xlsx
+++ b/Backend/assets/excelEvaluation/4jPA3R48dSvYrBzBLz64.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,6 +431,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Backend/assets/excelEvaluation/4jPA3R48dSvYrBzBLz64.xlsx
+++ b/Backend/assets/excelEvaluation/4jPA3R48dSvYrBzBLz64.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,6 +425,15 @@
       <c r="B1" t="n">
         <v>16</v>
       </c>
+      <c r="C1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D1" t="n">
+        <v>18</v>
+      </c>
+      <c r="E1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -434,6 +443,36 @@
     <row r="3">
       <c r="A3" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
